--- a/ela/templates/ELA_FORM_TMPL_A1S1.xlsx
+++ b/ela/templates/ELA_FORM_TMPL_A1S1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -305,27 +305,9 @@
     <t xml:space="preserve">assessments</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">The following {{ assessment_count }} assessment(s) are included in this form
-{{ question_types[0] }}: {{ ela_asssessment_ids[0]  }}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">{{ question_types[1] }}: {{ ela_asssessment_ids[1]  }}</t>
-    </r>
+    <t xml:space="preserve">The following {{ assessment_count }} assessment(s) are included in this form
+{{ question_types[0] }}: {{ assessment_ids[0]  }}
+{{ question_types[1] }}: {{ assessment_ids[1]  }}</t>
   </si>
   <si>
     <t xml:space="preserve">num_assessments</t>
@@ -388,10 +370,10 @@
     <t xml:space="preserve">{{ question_prompts[0] }}</t>
   </si>
   <si>
-    <t xml:space="preserve">ela_asssessment_id_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“{{ ela_asssessment_ids[0] }}”</t>
+    <t xml:space="preserve">assessment_id_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“{{ assessment_ids[0] }}”</t>
   </si>
   <si>
     <t xml:space="preserve">question_1_type</t>
@@ -427,10 +409,10 @@
     <t xml:space="preserve">{{ question_prompts[1] }}</t>
   </si>
   <si>
-    <t xml:space="preserve">ela_asssessment_id_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“{{ ela_asssessment_ids[1] }}”</t>
+    <t xml:space="preserve">assessment_id_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“{{ assessment_ids[1] }}”</t>
   </si>
   <si>
     <t xml:space="preserve">question_2_type</t>
@@ -548,7 +530,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -578,12 +560,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -664,11 +640,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -691,15 +667,15 @@
   </sheetPr>
   <dimension ref="A1:AB27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A27" activeCellId="0" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="I22" activeCellId="0" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.14"/>
@@ -1114,7 +1090,7 @@
   </sheetPr>
   <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
@@ -1122,7 +1098,7 @@
       <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.95703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.63"/>
@@ -1351,7 +1327,7 @@
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.95703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.13"/>
@@ -1428,7 +1404,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.94140625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.95703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">

--- a/ela/templates/ELA_FORM_TMPL_A1S1.xlsx
+++ b/ela/templates/ELA_FORM_TMPL_A1S1.xlsx
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="104">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -275,7 +275,7 @@
     <t xml:space="preserve">calculate</t>
   </si>
   <si>
-    <t xml:space="preserve">ela_form_id</t>
+    <t xml:space="preserve">form_id</t>
   </si>
   <si>
     <t xml:space="preserve">“{{ id }}”</t>
@@ -494,9 +494,6 @@
   </si>
   <si>
     <t xml:space="preserve">form_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">form_id</t>
   </si>
   <si>
     <t xml:space="preserve">version</t>
@@ -672,10 +669,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I22" activeCellId="0" sqref="I22"/>
+      <selection pane="bottomRight" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.14"/>
@@ -1098,7 +1095,7 @@
       <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.95703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.9765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.63"/>
@@ -1327,7 +1324,7 @@
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.95703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.9765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.13"/>
@@ -1339,13 +1336,13 @@
         <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1372,10 +1369,10 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>1</v>
@@ -1404,31 +1401,31 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.95703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.9765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
